--- a/Documents/管道打包测试记录.xlsx
+++ b/Documents/管道打包测试记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="284">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -456,43 +456,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2.2g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>71.9M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>514.5M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3.0G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>661.2 mb  14.4% 新模型1103/管道_new/JQ/JQ/JQ.fbx
-381.8 mb  8.3% 新模型1103/管道_new/SG/SG/SG.fbx
-246.1 mb  5.4% 新模型0715/李/1_主厂房.fbx
-226.4 mb  4.9% 新模型1103/管道_new/JG/JG/JG.fbx
-204.2 mb  4.5% 新模型1103/主厂房/F级主厂房_New_211102/F级主厂房_New/F级主厂房_New.fbx
-103.7 mb  2.3% 新模型1103/余热锅炉/闵行F级余热锅炉/闵行F级余热锅炉.fbx
-98.5 mb  2.1% 新模型1103/管道_new/HH/HH/HH.fbx
-97.3 mb  2.1% 新模型1103/主厂房/F级燃机设备管道/F级燃机设备管道.fbx
-75.0 mb  1.6% 新模型1103/主厂房/F级燃机设备管道/F级燃机设备管道_2.fbx
-35.1 mb  0.8% 设备/F级主厂房/F级主厂房设备/lods/F级汽轮机/F级汽轮机合并.FBX
-22.1 mb  0.5% 新模型1103/管道_new/综合管架/综合管架/综合管架.fbx
-10.3 mb  0.2% 新模型1103/F级主厂房1117/F级主厂房平台/F级主厂房平台.fbx
-9.9 mb  0.2% 设备/F级主厂房/F级主厂房设备/主机模型/主机模型.fbx
-9.0 mb  0.2% 新模型1103/F级主厂房/F级主厂房/F级主厂房.fbx
-8.3 mb  0.2% 新模型1103/余热锅炉/余热锅炉/余热锅炉.fbx
-5.5 mb  0.1% 新模型1103/F级主厂房1117/F级汽机、消防管道修改/F级汽机、消防管道修改.fbx
-5.2 mb  0.1% PersonModels/Models/ManWorker/ManWorker-1/ManWorker-1.FBX
-3.4 mb  0.1% 管道_out/JQ/JQ.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3051/3051=100%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -501,26 +468,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4.58G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3384M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3103M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5164M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2400M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5724/5769=99.2%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -585,59 +532,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3.96G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1.5G</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>89.8M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.4G</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>348.0 mb  8.8% 新模型1103/管道_new/JQ/JQ/JQ.fbx
-246.1 mb  6.2% 新模型0715/李/1_主厂房.fbx
-204.2 mb  5.2% 新模型1103/主厂房/F级主厂房_New_211102/F级主厂房_New/F级主厂房_New.fbx
-190.4 mb  4.8% 新模型1103/管道_new/SG/SG/SG.fbx
-141.2 mb  3.6% 新模型1103/管道_new/JG/JG/JG.fbx
-103.7 mb  2.6% 新模型1103/余热锅炉/闵行F级余热锅炉/闵行F级余热锅炉.fbx
-97.3 mb  2.5% 新模型1103/主厂房/F级燃机设备管道/F级燃机设备管道.fbx
-75.0 mb  1.9% 新模型1103/主厂房/F级燃机设备管道/F级燃机设备管道_2.fbx
-40.0 mb  1.0% 新模型1103/管道_new/HH/HH/HH.fbx
-35.1 mb  0.9% 设备/F级主厂房/F级主厂房设备/lods/F级汽轮机/F级汽轮机合并.FBX
-22.1 mb  0.6% 新模型1103/管道_new/综合管架/综合管架/综合管架.fbx
-10.3 mb  0.3% 新模型1103/F级主厂房1117/F级主厂房平台/F级主厂房平台.fbx
-9.9 mb  0.3% 设备/F级主厂房/F级主厂房设备/主机模型/主机模型.fbx
-9.0 mb  0.2% 新模型1103/F级主厂房/F级主厂房/F级主厂房.fbx
-8.3 mb  0.2% 新模型1103/余热锅炉/余热锅炉/余热锅炉.fbx
-5.5 mb  0.1% 新模型1103/F级主厂房1117/F级汽机、消防管道修改/F级汽机、消防管道修改.fbx
-5.2 mb  0.1% PersonModels/Models/ManWorker/ManWorker-1/ManWorker-1.FBX
-3.4 mb  0.1% 管道_out/JQ/JQ.fbx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2058M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1749M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3237M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1600M</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>HH_Prefab</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -682,10 +580,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OneKey target:厂区管道 time:00:44(00:13+00:02+00:23) arg:(12_6_8_6) Models:2291=1028+432+831(0)) PrefabInfoList Prefabs:119(57+43+19) Time:00:04+00:18+00:00 TargetInfo:v:203,r:2291(v:203 m:2291) -&gt; ResultInfo:v:63.8,r:2291(v:5.66 m:120) (31.42%,2.79%)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>528M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -699,6 +593,646 @@
   </si>
   <si>
     <t>900M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTX2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.26G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40.5M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>567.9M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.7G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.16G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>239M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15.9M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1019M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>226.4 mb  20.9% 新模型1103/管道_new/JG/JG/JG.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.62G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>689.6M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40.5M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>660.6 mb  42.4% 新模型1103/管道_new/JQ/JQ/JQ.fbx
+ 13.3 mb  0.9% 新模型1103/主厂房/F级主厂房_New_211102/F级主厂房_New/F级主厂房_New.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 661.2 mb  28.4% 新模型1103/管道_new/JQ/JQ/JQ.fbx
+ 381.7 mb  16.4% 新模型1103/管道_new/SG/SG/SG.fbx
+ 226.4 mb  9.7% 新模型1103/管道_new/JG/JG/JG.fbx
+ 98.5 mb  4.2% 新模型1103/管道_new/HH/HH/HH.fbx
+ 22.1 mb  0.9% 新模型1103/管道_new/综合管架/综合管架/综合管架.fbx
+ 13.3 mb  0.6% 新模型1103/主厂房/F级主厂房_New_211102/F级主厂房_New/F级主厂房_New.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.37G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>76.7M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.74G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 343.9 mb  20.5% 新模型1103/管道_new/JQ/JQ/JQ.fbx
+ 183.7 mb  10.9% 新模型1103/管道_new/SG/SG/SG.fbx
+ 140.5 mb  8.4% 新模型1103/管道_new/JG/JG/JG.fbx
+ 38.8 mb  2.3% 新模型1103/管道_new/HH/HH/HH.fbx
+ 22.1 mb  1.3% 新模型1103/管道_new/综合管架/综合管架/综合管架.fbx
+ 12.8 mb  0.8% 新模型1103/主厂房/F级主厂房_New_211102/F级主厂房_New/F级主厂房_New.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>760.2M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.32G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>343.9 mb  27.6% 新模型1103/管道_new/JQ/JQ/JQ.fbx
+ 12.8 mb  1.0% 新模型1103/主厂房/F级主厂房_New_211102/F级主厂房_New/F级主厂房_New.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>370.5M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40.9M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>799M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>675M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>900M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1606M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1300M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2318M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3375M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3090M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4174M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1163M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>956M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1646M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1994M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1733M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1400M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2740M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>996M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.8 mb  4.4% 新模型1103/管道_new/HH/HH/HH.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.7M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>826.3M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>418M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>310M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>713M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.9M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>781.4M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Models:2291=1028+432+831(0)) PrefabInfoList Prefabs:119(57+43+19) Time:00:04+00:18+00:00 TargetInfo:v:203,r:2291(v:203 m:2291) -&gt; ResultInfo:v:63.8,r:2291(v:5.66 m:120) (31.42%,2.79%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Models:16117=5182+5926+5009(55)) PrefabInfoList Prefabs:1842(477+1303+62) Time:00:32+06:31+00:00 TargetInfo:v:1495,r:16378(v:1421 m:15817) -&gt; ResultInfo:v:742,r:16378(v:169 m:2103) (49.64%,11.30%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original_NoSubScenes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.6G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.9G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.9G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Original_NoCombined</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Models:5370=1228+2945+1197(0)) PrefabInfoList Prefabs:376(62+299+15) Time:00:04+02:42+00:00 TargetInfo:v:486,r:6008(v:486 m:6008) -&gt; ResultInfo:v:298,r:6008(v:24.0 m:1022) (61.25%,4.94%)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>326M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>226M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>584M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>700M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.07G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>153M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>17.3M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>935M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>140.5 mb  14.1% 新模型1103/管道_new/JG/JG/JG.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>616M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>800M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>978M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.66/63.8=8.9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>120/2291</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24698M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8900M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HH_Prefab_Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>552M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1169M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38.8 mb  5.0% 新模型1103/管道_new/HH/HH/HH.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>452.4M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>716.4M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>886M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>146M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 38.8 mb  25.9% Assets/Models/HH/HH.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>38.8M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main_HH_Empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.5M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>102M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主项目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.13G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>951M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>137.7M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 74.3 mb  7.0% 新模型1103/管道_new/JQ/JQ/JQ.fbx
+ 39.6 mb  3.7% 新模型1103/管道_new/SG/SG/SG.fbx
+ 6.5 mb  0.6% 新模型1103/管道_new/JG/JG/JG.fbx
+ 2.1 mb  0.2% 新模型1103/管道_new/HH/HH/HH.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.5M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.4M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>996.1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>910M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>655M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1530M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>厂区管道_Prefab2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factory_Done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.2G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.58G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.8G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>185M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.4G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.2G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>256M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.0G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>325.2 mb  6.3% 新模型0715/李/1_主厂房.fbx
+207.5 mb  4.0% 新模型1103/主厂房/F级主厂房_New_211102/F级主厂房_New/F级主厂房_New.fbx
+183.2 mb  3.6% 新模型1103/管道_new/SG/SG/SG.fbx
+163.1 mb  3.2% 新模型1103/管道_new/JQ/JQ/JQ.fbx
+134.1 mb  2.6% 新模型1103/管道_new/JG/JG/JG.fbx
+120.0 mb  2.3% 设备/F级主厂房/F级主厂房设备/lods/发电机—/发电机—合并.FBX
+105.4 mb  2.1% 新模型1117/H级余热锅炉/闵行H级余热锅炉_LOD0.fbx
+103.7 mb  2.0% 新模型1103/余热锅炉/闵行F级余热锅炉/闵行F级余热锅炉.fbx
+97.6 mb  1.9% 新模型220119/17_F1_Devs/17_F1_Devs.fbx
+97.3 mb  1.9% 新模型1103/主厂房/F级燃机设备管道/F级燃机设备管道.fbx
+95.3 mb  1.9% 新模型0803/12_给水泵房含钢架/12_给水泵房.fbx
+87.2 mb  1.7% 新模型1103/继电器楼/继电器楼/继电器楼.fbx
+83.6 mb  1.6% 新模型1103/启动锅炉房/启动锅炉房/启动锅炉房.fbx
+81.3 mb  1.6% 新模型0803/10_43_44/10_废水零排放车间_LOD0_Smooth.fbx
+76.0 mb  1.5% 新模型1103/主厂房/F级燃机设备管道/F级燃机设备管道_2.fbx
+72.1 mb  1.4% 新模型0803/10_43_44/10_43_44.fbx
+65.0 mb  1.3% 新模型0702/GIS及出线架构区域及厂家设备LODs/GIS及出线架构区域及厂家设备_LOD0/MeshAssets/F-2.jt_Combined_C-7472510.asset
+61.5 mb  1.2% 新模型0715/李/主厂房LOD/H级汽轮机/H级汽轮机lod0_2.fbx
+57.6 mb  1.1% 新模型1103/主厂房/H级主厂房_NewDev_H级燃机房设备管道/H级主厂房_NewDev_H级燃机房设备管道.fbx
+48.4 mb  0.9% 闵行模型-齐/FD/equipment/FD_Equipment_其他/FD_Equipment_其他.fbx
+43.4 mb  0.8% 厂区/闵行环境/闵行环境.fbx
+42.7 mb  0.8% 新模型0715/葛/3_继电器楼(1)/3_继电器楼.fbx
+42.3 mb  0.8% 新模型0803/12_给水泵房含钢架/MeshAssets/12_F1_Dev3_Combined_C-222492.asset
+41.9 mb  0.8% 闵行模型-齐/out/Equipment/out_Equipment_35/out_Equipment_35.fbx
+40.6 mb  0.8% 新模型1103/废水零排放车间/废水零排放车间/废水零排放车间.fbx
+40.0 mb  0.8% 新模型1103/管道_new/HH/HH/HH.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.2G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>249M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1007M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.0G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factory_只有模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factory_只有模型_无脚本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>324.5 mb  7.7% 新模型0715/李/1_主厂房.fbx
+173.5 mb  4.1% 新模型1103/主厂房/F级主厂房_New_211102/F级主厂房_New/F级主厂房_New.fbx
+120.0 mb  2.9% 设备/F级主厂房/F级主厂房设备/lods/发电机—/发电机—合并.FBX
+105.4 mb  2.5% 新模型1117/H级余热锅炉/闵行H级余热锅炉_LOD0.fbx
+97.6 mb  2.3% 新模型220119/17_F1_Devs/17_F1_Devs.fbx
+95.3 mb  2.3% 新模型0803/12_给水泵房含钢架/12_给水泵房.fbx
+87.2 mb  2.1% 新模型1103/继电器楼/继电器楼/继电器楼.fbx
+83.6 mb  2.0% 新模型1103/启动锅炉房/启动锅炉房/启动锅炉房.fbx
+81.3 mb  1.9% 新模型0803/10_43_44/10_废水零排放车间_LOD0_Smooth.fbx
+74.1 mb  1.8% 新模型1103/管道_new/JQ/JQ/JQ.fbx
+73.7 mb  1.8% 新模型1103/主厂房/F级燃机设备管道/F级燃机设备管道.fbx
+72.1 mb  1.7% 新模型0803/10_43_44/10_43_44.fbx
+65.0 mb  1.5% 新模型0702/GIS及出线架构区域及厂家设备LODs/GIS及出线架构区域及厂家设备_LOD0/MeshAssets/F-2.jt_Combined_C-7472510.asset
+61.5 mb  1.5% 新模型0715/李/主厂房LOD/H级汽轮机/H级汽轮机lod0_2.fbx
+57.6 mb  1.4% 新模型1103/主厂房/H级主厂房_NewDev_H级燃机房设备管道/H级主厂房_NewDev_H级燃机房设备管道.fbx
+57.5 mb  1.4% 新模型1103/余热锅炉/闵行F级余热锅炉/闵行F级余热锅炉.fbx
+48.4 mb  1.2% 闵行模型-齐/FD/equipment/FD_Equipment_其他/FD_Equipment_其他.fbx
+42.7 mb  1.0% 新模型0715/葛/3_继电器楼(1)/3_继电器楼.fbx
+42.3 mb  1.0% 新模型0803/12_给水泵房含钢架/MeshAssets/12_F1_Dev3_Combined_C-222492.asset
+41.9 mb  1.0% 闵行模型-齐/out/Equipment/out_Equipment_35/out_Equipment_35.fbx
+40.6 mb  1.0% 新模型1103/废水零排放车间/废水零排放车间/废水零排放车间.fbx
+40.2 mb  1.0% 新模型1103/主厂房/F级燃机设备管道/F级燃机设备管道_2.fbx
+39.3 mb  0.9% 新模型1103/管道_new/SG/SG/SG.fbx
+28.9 mb  0.7% 新模型0702/调压站及厂家设备/调压站及厂家设备.FBX
+27.4 mb  0.7% 新模型1103/主厂房/H级主厂房_New/Dev2.fbx
+22.6 mb  0.5% 新模型0630/齐/闵行模型_7、8/7_供氢站.fbx
+19.3 mb  0.5% 设备/升压站区域/76_绝缘子原_LOD1/76_绝缘子原_LOD1.FBX
+18.8 mb  0.4% 新模型/32_F级机力通风冷却塔/New/通风冷却塔_out/通风冷却塔_out.fbx
+18.3 mb  0.4% 新模型0715/李/1D_集控楼.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.0G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.9G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>73.1M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>105.4 mb  3.2% 新模型1117/H级余热锅炉/闵行H级余热锅炉_LOD0.fbx
+97.6 mb  3.0% 新模型220119/17_F1_Devs/17_F1_Devs.fbx
+91.0 mb  2.8% 新模型0803/12_给水泵房含钢架/12_给水泵房.fbx
+89.0 mb  2.7% 新模型1103/主厂房/F级主厂房_New_211102/F级主厂房_New/F级主厂房_New.fbx
+87.2 mb  2.7% 新模型1103/继电器楼/继电器楼/继电器楼.fbx
+83.6 mb  2.6% 新模型1103/启动锅炉房/启动锅炉房/启动锅炉房.fbx
+80.7 mb  2.5% 新模型0803/10_43_44/10_废水零排放车间_LOD0_Smooth.fbx
+74.1 mb  2.3% 新模型1103/管道_new/JQ/JQ/JQ.fbx
+72.1 mb  2.2% 新模型0803/10_43_44/10_43_44.fbx
+65.0 mb  2.0% 新模型0702/GIS及出线架构区域及厂家设备LODs/GIS及出线架构区域及厂家设备_LOD0/MeshAssets/F-2.jt_Combined_C-7472510.asset
+57.6 mb  1.8% 新模型1103/主厂房/H级主厂房_NewDev_H级燃机房设备管道/H级主厂房_NewDev_H级燃机房设备管道.fbx
+57.5 mb  1.8% 新模型1103/余热锅炉/闵行F级余热锅炉/闵行F级余热锅炉.fbx
+48.4 mb  1.5% 闵行模型-齐/FD/equipment/FD_Equipment_其他/FD_Equipment_其他.fbx
+42.3 mb  1.3% 新模型0803/12_给水泵房含钢架/MeshAssets/12_F1_Dev3_Combined_C-222492.asset
+41.9 mb  1.3% 闵行模型-齐/out/Equipment/out_Equipment_35/out_Equipment_35.fbx
+40.6 mb  1.2% 新模型1103/废水零排放车间/废水零排放车间/废水零排放车间.fbx
+40.2 mb  1.2% 新模型1103/主厂房/F级燃机设备管道/F级燃机设备管道_2.fbx
+39.3 mb  1.2% 新模型1103/管道_new/SG/SG/SG.fbx
+33.2 mb  1.0% 新模型0715/葛/3_继电器楼(1)/3_继电器楼.fbx
+28.9 mb  0.9% 新模型0702/调压站及厂家设备/调压站及厂家设备.FBX
+27.0 mb  0.8% 新模型0715/李/1_主厂房.fbx
+21.7 mb  0.7% 新模型0630/齐/闵行模型_7、8/7_供氢站.fbx
+19.3 mb  0.6% 设备/升压站区域/76_绝缘子原_LOD1/76_绝缘子原_LOD1.FBX
+18.8 mb  0.6% 新模型1103/主厂房/H级主厂房_New/Dev2.fbx
+18.8 mb  0.6% 新模型/32_F级机力通风冷却塔/New/通风冷却塔_out/通风冷却塔_out.fbx
+17.1 mb  0.5% 新模型/32_F级机力通风冷却塔/32_F级机力通风冷却塔.fbx
+16.9 mb  0.5% 新模型0715/李/1D_集控楼.fbx
+16.2 mb  0.5% 新模型1103/余热锅炉/余热锅炉/余热锅炉.fbx
+16.0 mb  0.5% 新模型1103/中央水泵房/中央水泵房/中央水泵房.fbx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -786,7 +1320,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -798,64 +1332,131 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1160,77 +1761,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X21"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="A16" sqref="A16"/>
+      <selection pane="topRight" activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="23.875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="4.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="5.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="71" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6.25" style="1" customWidth="1"/>
-    <col min="11" max="11" width="7.125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="7.25" style="7" customWidth="1"/>
-    <col min="13" max="13" width="6.625" style="7" customWidth="1"/>
-    <col min="14" max="14" width="6.75" style="7" customWidth="1"/>
-    <col min="15" max="15" width="8.625" style="7" customWidth="1"/>
-    <col min="16" max="16" width="5.875" style="7" customWidth="1"/>
-    <col min="17" max="17" width="12.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="19.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="29.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="47.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="1"/>
+    <col min="3" max="3" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="1"/>
+    <col min="10" max="10" width="74.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="7" customWidth="1"/>
+    <col min="14" max="14" width="6.625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="7" customWidth="1"/>
+    <col min="16" max="16" width="8.625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="5.875" style="7" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.5" style="1" customWidth="1"/>
+    <col min="22" max="22" width="19.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="29.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="47.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="D1" s="2" t="s">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="E1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="2"/>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2"/>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="2"/>
+      <c r="O1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="3"/>
       <c r="P1" s="3"/>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="3"/>
+      <c r="R1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="R1" s="2"/>
       <c r="S1" s="2"/>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="2"/>
+      <c r="U1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="U1" s="2"/>
       <c r="V1" s="2"/>
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
-    </row>
-    <row r="2" spans="1:24" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
+      <c r="Y1" s="2"/>
+    </row>
+    <row r="2" spans="1:25" s="4" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1241,239 +1843,242 @@
         <v>1</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="K2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="L2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="R2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="U2" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="V2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="W2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="X2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="Y2" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="7" t="s">
+      <c r="N3" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="N3" s="8">
+      <c r="O3" s="8">
         <v>1.7000000000000001E-2</v>
       </c>
-      <c r="O3" s="8">
+      <c r="P3" s="8">
         <v>0.10100000000000001</v>
       </c>
-      <c r="P3" s="9">
+      <c r="Q3" s="9">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="F4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M4" s="7" t="s">
+      <c r="N4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N4" s="8">
+      <c r="O4" s="8">
         <v>0.02</v>
       </c>
-      <c r="O4" s="8">
+      <c r="P4" s="8">
         <v>0.107</v>
       </c>
-      <c r="P4" s="9">
+      <c r="Q4" s="9">
         <v>60</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="S4" s="10"/>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.15">
+      <c r="T4" s="10"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="N5" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="N5" s="8">
+      <c r="O5" s="8">
         <v>5.7000000000000002E-2</v>
       </c>
-      <c r="O5" s="8">
+      <c r="P5" s="8">
         <v>0.125</v>
       </c>
-      <c r="P5" s="9">
+      <c r="Q5" s="9">
         <v>60</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="T5" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="T5" s="11">
+      <c r="U5" s="11">
         <v>1.9444444444444445E-2</v>
       </c>
-      <c r="U5" s="1" t="s">
+      <c r="V5" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="W5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="X5" s="1" t="s">
+      <c r="Y5" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
@@ -1481,7 +2086,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>44</v>
       </c>
@@ -1489,7 +2094,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -1497,468 +2102,1064 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" spans="1:24" ht="54" x14ac:dyDescent="0.15">
-      <c r="A9" s="1" t="s">
-        <v>74</v>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A9" s="26" t="s">
+        <v>246</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>79</v>
+      <c r="E9" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="G9" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="H9" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>248</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="N9" s="8">
-        <v>0.29599999999999999</v>
-      </c>
-      <c r="O9" s="12">
-        <v>0.37</v>
-      </c>
-      <c r="P9" s="7">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" s="8">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="P10" s="12">
+        <v>0.37</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>16</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" s="1" t="s">
+      <c r="G11" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="I11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="O11" s="8">
+        <v>0.04</v>
+      </c>
+      <c r="P11" s="12">
+        <v>0.63</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>60</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="S11" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I10" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="N10" s="8">
-        <v>0.04</v>
-      </c>
-      <c r="O10" s="12">
-        <v>0.63</v>
-      </c>
-      <c r="P10" s="9">
-        <v>60</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="13" customFormat="1" ht="54" x14ac:dyDescent="0.15">
-      <c r="A11" s="13" t="s">
+      <c r="T11" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" s="13" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A12" s="13" t="s">
         <v>84</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="K11" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="L11" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="M11" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="N11" s="16">
-        <v>0.33800000000000002</v>
-      </c>
-      <c r="O11" s="16">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="P11" s="14">
-        <v>21</v>
-      </c>
-      <c r="Q11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="R11" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="S11" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="T11" s="17">
-        <v>0.55625000000000002</v>
-      </c>
-      <c r="U11" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="V11" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="W11" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="X11" s="13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="13" t="s">
-        <v>98</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="E12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="O12" s="16">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="P12" s="16">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="Q12" s="14">
+        <v>21</v>
+      </c>
+      <c r="R12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="U12" s="17">
+        <v>0.55625000000000002</v>
+      </c>
+      <c r="V12" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="W12" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" s="13" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="F13" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="G13" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="H13" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="J12" s="13" t="s">
+      <c r="K13" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="K12" s="13" t="s">
+      <c r="L13" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="M13" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="M12" s="14" t="s">
+      <c r="N13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="N12" s="18">
+      <c r="O13" s="18">
         <v>0.11899999999999999</v>
       </c>
-      <c r="O12" s="16">
+      <c r="P13" s="16">
         <v>0.183</v>
       </c>
-      <c r="P12" s="19">
+      <c r="Q13" s="19">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:24" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="1" t="s">
+    <row r="14" spans="1:25" s="28" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="27" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E14" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="H14" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="37" t="s">
+        <v>164</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>183</v>
+      </c>
+      <c r="L14" s="28" t="s">
+        <v>184</v>
+      </c>
+      <c r="M14" s="29" t="s">
+        <v>186</v>
+      </c>
+      <c r="N14" s="29" t="s">
+        <v>185</v>
+      </c>
+      <c r="O14" s="30">
+        <v>0.219</v>
+      </c>
+      <c r="P14" s="30">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>12</v>
+      </c>
+      <c r="R14" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="S14" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0.24600000000000002</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0.41799999999999998</v>
-      </c>
-      <c r="P13" s="7">
+    </row>
+    <row r="15" spans="1:25" s="39" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="G15" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="J15" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="K15" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="L15" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="M15" s="40" t="s">
+        <v>194</v>
+      </c>
+      <c r="N15" s="40" t="s">
+        <v>193</v>
+      </c>
+      <c r="O15" s="42">
+        <v>0.21</v>
+      </c>
+      <c r="P15" s="42">
+        <v>0.16</v>
+      </c>
+      <c r="Q15" s="40">
+        <v>17</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="S15" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="T15" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="U15" s="43">
+        <v>0.43958333333333338</v>
+      </c>
+      <c r="V15" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="W15" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="X15" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="Y15" s="39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" s="21" customFormat="1" ht="54" x14ac:dyDescent="0.15">
+      <c r="A16" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>250</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>252</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>255</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="21" t="s">
+        <v>256</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>257</v>
+      </c>
+      <c r="L16" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="N16" s="22" t="s">
+        <v>227</v>
+      </c>
+      <c r="O16" s="24">
+        <v>0.21</v>
+      </c>
+      <c r="P16" s="24">
+        <v>0.15</v>
+      </c>
+      <c r="Q16" s="22">
         <v>15</v>
       </c>
-      <c r="Q13" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" s="21" customFormat="1" ht="136.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="21" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="F14" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="G14" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="J14" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="K14" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="L14" s="22" t="s">
-        <v>148</v>
-      </c>
-      <c r="M14" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="N14" s="24">
-        <v>0.22800000000000001</v>
-      </c>
-      <c r="O14" s="24">
-        <v>0.314</v>
-      </c>
-      <c r="P14" s="22">
+      <c r="U16" s="25"/>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="Q14" s="21" t="s">
-        <v>138</v>
-      </c>
-      <c r="R14" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="S14" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="T14" s="25">
-        <v>0.43958333333333338</v>
-      </c>
-      <c r="U14" s="21" t="s">
-        <v>134</v>
-      </c>
-      <c r="V14" s="21" t="s">
-        <v>133</v>
-      </c>
-      <c r="W14" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="X14" s="21" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="T15" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.15">
-      <c r="A16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="M16" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0.22500000000000001</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="P16" s="7">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A17" s="1" t="s">
-        <v>150</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T17" s="11">
+      <c r="C17" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="26" t="s">
+        <v>206</v>
+      </c>
+      <c r="K17" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="L17" s="26" t="s">
+        <v>217</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="O17" s="12">
+        <v>0.12</v>
+      </c>
+      <c r="P17" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>139</v>
+      </c>
+      <c r="G18" s="28" t="s">
+        <v>140</v>
+      </c>
+      <c r="H18" s="28" t="s">
+        <v>141</v>
+      </c>
+      <c r="I18" s="28" t="s">
+        <v>142</v>
+      </c>
+      <c r="J18" s="28" t="s">
+        <v>143</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="L18" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="M18" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="N18" s="29" t="s">
+        <v>147</v>
+      </c>
+      <c r="O18" s="30">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="P18" s="30">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="Q18" s="29">
+        <v>171</v>
+      </c>
+      <c r="U18" s="28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>195</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>198</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>199</v>
+      </c>
+      <c r="J19" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>201</v>
+      </c>
+      <c r="M19" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="N19" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="O19" s="35">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="P19" s="35">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="Q19" s="34">
+        <v>250</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="S19" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="U19" s="36">
         <v>3.0555555555555555E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A18" s="1" t="s">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A20" s="47" t="s">
+        <v>234</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>242</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>241</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>239</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>240</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>237</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M20" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="P20" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="U20" s="11"/>
+    </row>
+    <row r="21" spans="1:21" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E21" s="28" t="s">
+        <v>155</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>157</v>
+      </c>
+      <c r="H21" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="28" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" s="28" t="s">
+        <v>159</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" s="28" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="N21" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" s="30">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="P21" s="30">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="Q21" s="29">
+        <v>92</v>
+      </c>
+      <c r="U21" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" s="32" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="E22" s="32" t="s">
+        <v>221</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>224</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>226</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="M22" s="34" t="s">
+        <v>228</v>
+      </c>
+      <c r="N22" s="34" t="s">
+        <v>227</v>
+      </c>
+      <c r="O22" s="35">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="P22" s="46">
+        <v>0.37</v>
+      </c>
+      <c r="Q22" s="34">
+        <v>105</v>
+      </c>
+      <c r="U22" s="36">
+        <v>0.1361111111111111</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H23" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="J23" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23" s="28" t="s">
+        <v>180</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="O23" s="30">
+        <v>0.22700000000000001</v>
+      </c>
+      <c r="P23" s="30">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="Q23" s="29">
+        <v>31</v>
+      </c>
+      <c r="U23" s="32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" s="32" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="L24" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="M24" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="N24" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="O24" s="35">
+        <v>0.224</v>
+      </c>
+      <c r="P24" s="35">
+        <v>0.23400000000000001</v>
+      </c>
+      <c r="Q24" s="34">
+        <v>42</v>
+      </c>
+      <c r="U24" s="36">
+        <v>0.49652777777777773</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="J25" s="4"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="G26" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A19" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="1" t="s">
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A20" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A30" s="26" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A21" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="1" t="s">
+      <c r="D30" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="G30" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="I30" s="26" t="s">
+        <v>213</v>
+      </c>
+      <c r="K30" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="L30" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" s="26" t="s">
+        <v>231</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="O30" s="8">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="P30" s="8">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="Q30" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.15">
+      <c r="A31" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>100</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>263</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="G31" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="162" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="48" t="s">
+        <v>261</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>262</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" s="26" t="s">
+        <v>268</v>
+      </c>
+      <c r="H32" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>269</v>
+      </c>
+      <c r="J32" s="20" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="48" t="s">
+        <v>276</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>271</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="G33" s="26" t="s">
+        <v>273</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="J33" s="20" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="167.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="48" t="s">
+        <v>277</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E34" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="G34" s="26" t="s">
+        <v>281</v>
+      </c>
+      <c r="H34" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="J34" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="O42" s="7">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="T1:X1"/>
+    <mergeCell ref="E1:J1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="U1:Y1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/管道打包测试记录.xlsx
+++ b/Documents/管道打包测试记录.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="306">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1233,6 +1233,114 @@
 16.9 mb  0.5% 新模型0715/李/1D_集控楼.fbx
 16.2 mb  0.5% 新模型1103/余热锅炉/余热锅炉/余热锅炉.fbx
 16.0 mb  0.5% 新模型1103/中央水泵房/中央水泵房/中央水泵房.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无模型_ControlSystem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>898M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18950M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7900M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9280M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3600M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6830M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>管道更新2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.02G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>260M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.9G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>124.5 mb  3.1% 新模型0702/调压站及厂家设备/调压站及厂家设备.FBX
+ 108.4 mb  2.7% 新模型1117/H级余热锅炉/闵行H级余热锅炉_LOD0.fbx
+ 102.7 mb  2.6% 新模型1103/余热锅炉/闵行F级余热锅炉/闵行F级余热锅炉.fbx
+ 97.6 mb  2.4% 新模型220119/17_F1_Devs/17_F1_Devs.fbx
+ 91.0 mb  2.3% 新模型0803/12_给水泵房含钢架/12_给水泵房.fbx
+ 89.4 mb  2.2% 新模型1103/主厂房/F级主厂房_New_211102/F级主厂房_New/F级主厂房_New.fbx
+ 87.2 mb  2.2% 新模型1103/继电器楼/继电器楼/继电器楼.fbx
+ 83.6 mb  2.1% 新模型1103/启动锅炉房/启动锅炉房/启动锅炉房.fbx
+ 81.3 mb  2.0% 新模型0803/10_43_44/10_废水零排放车间_LOD0_Smooth.fbx
+ 76.0 mb  1.9% 新模型1103/主厂房/F级燃机设备管道/F级燃机设备管道_2.fbx
+ 74.3 mb  1.8% 新模型1103/管道_new/JQ/JQ/JQ.fbx
+ 72.1 mb  1.8% 新模型0803/10_43_44/10_43_44.fbx
+ 65.0 mb  1.6% 新模型0702/GIS及出线架构区域及厂家设备LODs/GIS及出线架构区域及厂家设备_LOD0/MeshAssets/F-2.jt_Combined_C-7472510.asset
+ 57.6 mb  1.4% 新模型1103/主厂房/H级主厂房_NewDev_H级燃机房设备管道/H级主厂房_NewDev_H级燃机房设备管道.fbx
+ 48.5 mb  1.2% 闵行模型-齐/FD/equipment/FD_Equipment_其他/FD_Equipment_其他.fbx
+ 43.4 mb  1.1% 厂区/闵行环境/闵行环境.fbx
+ 42.3 mb  1.1% 新模型0803/12_给水泵房含钢架/MeshAssets/12_F1_Dev3_Combined_C-222492.asset
+ 41.9 mb  1.0% 闵行模型-齐/out/Equipment/out_Equipment_35/out_Equipment_35.fbx
+ 41.0 mb  1.0% 新模型1103/废水零排放车间/废水零排放车间/废水零排放车间.fbx
+ 39.6 mb  1.0% 新模型1103/管道_new/SG/SG/SG.fbx
+ 35.8 mb  0.9% 厂区/厂区_out/厂区_out.fbx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tree2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.7G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>263M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>891M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4209M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3758M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7580M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3200M</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1763,10 +1871,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="E33" sqref="E33"/>
+      <selection pane="topRight" activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3060,8 +3168,29 @@
       <c r="I31" s="26" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="32" spans="1:21" ht="162" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K31" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>232</v>
+      </c>
+      <c r="M31" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="N31" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="P31" s="8">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="48" t="s">
         <v>261</v>
       </c>
@@ -3090,7 +3219,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:17" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="48" t="s">
         <v>276</v>
       </c>
@@ -3118,8 +3247,20 @@
       <c r="J33" s="20" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" ht="167.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M33" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="N33" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="O33" s="8">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="P33" s="8">
+        <v>0.161</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="48" t="s">
         <v>277</v>
       </c>
@@ -3147,8 +3288,86 @@
       <c r="J34" s="20" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="M34" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="O34" s="8">
+        <v>0.15</v>
+      </c>
+      <c r="P34" s="12">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="48" t="s">
+        <v>292</v>
+      </c>
+      <c r="E35" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G35" s="26" t="s">
+        <v>295</v>
+      </c>
+      <c r="H35" s="26" t="s">
+        <v>294</v>
+      </c>
+      <c r="I35" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A36" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="E36" s="26" t="s">
+        <v>267</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G36" s="26" t="s">
+        <v>300</v>
+      </c>
+      <c r="H36" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="M36" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="N36" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="O36" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.15">
+      <c r="A40" s="48" t="s">
+        <v>284</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="O42" s="7">
         <v>5</v>
       </c>
